--- a/incrediblejournEYBEEwithyou/guestlist - 25.2.xlsx
+++ b/incrediblejournEYBEEwithyou/guestlist - 25.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="11640" windowHeight="7365" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="705" windowWidth="11640" windowHeight="7185" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="9" r:id="rId1"/>
@@ -1368,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1414,6 +1414,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9627,7 +9633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9638,8 +9644,8 @@
   <dimension ref="A3:C333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B66" activeCellId="2" sqref="B5:B42 B45:B51 B54:B66 B69:B71 B74:B91 B94:B103 B106:B110 B113:B143 B146:B168 B171 B174:B189 B192:B216 B219 B222:B233 B236 B239:B264 B267:B309 B312:B331"/>
-      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" dimension="2" activeRow="65" activeCol="1" previousRow="65" previousCol="1" click="1" r:id="rId1">
+      <selection activeCell="B19" sqref="B5:B42 B45:B51 B54:B66 B69:B71 B74:B91 B94:B103 B106:B110 B113:B143 B146:B168 B171 B174:B189 B192:B216 B219 B222:B233 B236 B239:B264 B267:B309 B312:B331"/>
+      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" dimension="2" activeRow="18" activeCol="1" previousRow="18" previousCol="1" click="1" r:id="rId1">
         <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
           <references count="1">
             <reference field="0" count="0"/>
@@ -12175,8 +12181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206:F206"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12214,7 +12220,7 @@
       </c>
       <c r="L1">
         <f>SUM(D2:D276)</f>
-        <v>438</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -12232,7 +12238,7 @@
       <c r="F2" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="18">
         <v>2</v>
       </c>
     </row>
@@ -12251,7 +12257,7 @@
       <c r="F3" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="18">
         <v>2</v>
       </c>
     </row>
@@ -12272,7 +12278,7 @@
       <c r="F4" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="18">
         <v>2</v>
       </c>
     </row>
@@ -12291,7 +12297,7 @@
       <c r="F5" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="18">
         <v>3</v>
       </c>
     </row>
@@ -12310,7 +12316,7 @@
       <c r="F6" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="18">
         <v>2</v>
       </c>
     </row>
@@ -12329,7 +12335,7 @@
       <c r="F7" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="18">
         <v>2</v>
       </c>
     </row>
@@ -12348,7 +12354,7 @@
       <c r="F8" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="18">
         <v>2</v>
       </c>
     </row>
@@ -12367,7 +12373,7 @@
       <c r="F9" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="18">
         <v>2</v>
       </c>
     </row>
@@ -12388,7 +12394,7 @@
       <c r="F10" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="18">
         <v>1</v>
       </c>
     </row>
@@ -12564,7 +12570,7 @@
       <c r="F19" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="18">
         <v>2</v>
       </c>
     </row>
@@ -12719,7 +12725,7 @@
       <c r="F26" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="18">
         <v>0</v>
       </c>
     </row>
@@ -12742,7 +12748,7 @@
       <c r="F27" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="18">
         <v>2</v>
       </c>
     </row>
@@ -12788,6 +12794,9 @@
       <c r="F29" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G29" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
@@ -12808,7 +12817,7 @@
       <c r="F30" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="18">
         <v>4</v>
       </c>
     </row>
@@ -12831,42 +12840,50 @@
       <c r="F31" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="17">
         <v>23</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D32" s="18">
+        <v>2</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="18" t="s">
         <v>397</v>
       </c>
+      <c r="G32" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="17">
         <v>24</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="D33">
+      <c r="C33" s="17"/>
+      <c r="D33" s="18">
         <v>1</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="18" t="s">
         <v>397</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -12888,6 +12905,9 @@
       <c r="F34" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G34" s="18">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -12982,6 +13002,7 @@
       <c r="F39" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G39" s="5"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
@@ -13002,7 +13023,7 @@
       <c r="F40" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="18">
         <v>2</v>
       </c>
     </row>
@@ -13025,6 +13046,7 @@
       <c r="F41" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G41" s="5"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
@@ -13063,7 +13085,7 @@
       <c r="F43" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="18">
         <v>3</v>
       </c>
     </row>
@@ -13084,6 +13106,7 @@
       <c r="F44" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G44" s="5"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
@@ -13104,7 +13127,7 @@
       <c r="F45" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="18">
         <v>3</v>
       </c>
     </row>
@@ -13147,7 +13170,7 @@
       <c r="F47" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="18">
         <v>3</v>
       </c>
     </row>
@@ -13170,6 +13193,9 @@
       <c r="F48" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G48" s="18">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
@@ -13188,7 +13214,7 @@
       <c r="F49" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="18">
         <v>2</v>
       </c>
     </row>
@@ -13209,6 +13235,7 @@
       <c r="F50" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -13280,6 +13307,7 @@
       <c r="F54" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G54" s="5"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
@@ -13300,6 +13328,7 @@
       <c r="F55" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G55" s="5"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -13371,25 +13400,31 @@
       <c r="F59" t="s">
         <v>397</v>
       </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="A60" s="17">
         <v>51</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="18">
         <v>1</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="18" t="s">
         <v>398</v>
+      </c>
+      <c r="G60" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -13411,25 +13446,31 @@
       <c r="F61" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G61" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="A62" s="17">
         <v>53</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="D62" s="18">
+        <v>2</v>
+      </c>
+      <c r="E62" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="18" t="s">
         <v>398</v>
+      </c>
+      <c r="G62" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -13451,7 +13492,7 @@
       <c r="F63" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="18">
         <v>0</v>
       </c>
     </row>
@@ -13472,8 +13513,9 @@
       <c r="F64" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>56</v>
       </c>
@@ -13490,7 +13532,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>57</v>
       </c>
@@ -13507,7 +13549,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>58</v>
       </c>
@@ -13524,7 +13566,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>59</v>
       </c>
@@ -13541,8 +13583,9 @@
       <c r="F68" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>60</v>
       </c>
@@ -13559,8 +13602,9 @@
       <c r="F69" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>61</v>
       </c>
@@ -13580,24 +13624,26 @@
         <v>397</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="19">
         <v>62</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="E71" s="2" t="s">
+      <c r="C71" s="19"/>
+      <c r="D71" s="20">
+        <v>2</v>
+      </c>
+      <c r="E71" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="20" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="20"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>63</v>
       </c>
@@ -13614,7 +13660,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>64</v>
       </c>
@@ -13631,7 +13677,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>65</v>
       </c>
@@ -13648,7 +13694,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>66</v>
       </c>
@@ -13665,7 +13711,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>67</v>
       </c>
@@ -13682,7 +13728,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>68</v>
       </c>
@@ -13699,7 +13745,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>69</v>
       </c>
@@ -13716,8 +13762,9 @@
       <c r="F78" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>70</v>
       </c>
@@ -13734,23 +13781,24 @@
         <v>397</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
         <v>71</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="5">
+      <c r="C80" s="6"/>
+      <c r="D80" s="7">
         <v>10</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="7" t="s">
         <v>397</v>
       </c>
+      <c r="G80" s="7"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
@@ -13786,6 +13834,9 @@
       <c r="F82" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G82" s="18">
+        <v>4</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
@@ -13864,13 +13915,16 @@
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>211</v>
       </c>
       <c r="F87" s="18" t="s">
         <v>398</v>
+      </c>
+      <c r="G87" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -13933,7 +13987,7 @@
       </c>
       <c r="C91" s="17"/>
       <c r="D91" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E91" s="17" t="s">
         <v>211</v>
@@ -13941,7 +13995,7 @@
       <c r="F91" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="18">
         <v>0</v>
       </c>
     </row>
@@ -13979,6 +14033,7 @@
       <c r="F93" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
@@ -14048,23 +14103,26 @@
       <c r="F97" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G97" s="5"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="A98" s="17">
         <v>89</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="E98" s="2" t="s">
+      <c r="C98" s="17"/>
+      <c r="D98" s="18">
+        <v>2</v>
+      </c>
+      <c r="E98" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
@@ -14101,21 +14159,23 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+      <c r="A101" s="17">
         <v>92</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="D101">
-        <v>2</v>
-      </c>
-      <c r="E101" s="2" t="s">
+      <c r="C101" s="17"/>
+      <c r="D101" s="18">
+        <v>2</v>
+      </c>
+      <c r="E101" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G101" s="5"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
@@ -14296,7 +14356,7 @@
       </c>
       <c r="C112" s="18"/>
       <c r="D112" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E112" s="17" t="s">
         <v>250</v>
@@ -14304,7 +14364,7 @@
       <c r="F112" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="18">
         <v>3</v>
       </c>
     </row>
@@ -14325,6 +14385,9 @@
       <c r="F113" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G113" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="17">
@@ -14343,7 +14406,7 @@
       <c r="F114" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="18">
         <v>2</v>
       </c>
     </row>
@@ -14356,13 +14419,16 @@
       </c>
       <c r="C115" s="18"/>
       <c r="D115" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E115" s="17" t="s">
         <v>250</v>
       </c>
       <c r="F115" s="18" t="s">
         <v>398</v>
+      </c>
+      <c r="G115" s="18">
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -14436,6 +14502,7 @@
       <c r="F119" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G119" s="5"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="17">
@@ -14454,6 +14521,7 @@
       <c r="F120" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G120" s="5"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="17">
@@ -14472,6 +14540,7 @@
       <c r="F121" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
@@ -14490,7 +14559,7 @@
       <c r="F122" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="20">
         <v>0</v>
       </c>
     </row>
@@ -14503,7 +14572,7 @@
       </c>
       <c r="C123" s="20"/>
       <c r="D123" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>250</v>
@@ -14511,7 +14580,7 @@
       <c r="F123" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="20">
         <v>0</v>
       </c>
     </row>
@@ -14524,13 +14593,16 @@
       </c>
       <c r="C124" s="18"/>
       <c r="D124" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E124" s="17" t="s">
         <v>250</v>
       </c>
       <c r="F124" s="18" t="s">
         <v>398</v>
+      </c>
+      <c r="G124" s="18">
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -14567,6 +14639,9 @@
       <c r="F126" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G126" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="19">
@@ -14577,7 +14652,7 @@
       </c>
       <c r="C127" s="20"/>
       <c r="D127" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E127" s="19" t="s">
         <v>250</v>
@@ -14585,7 +14660,7 @@
       <c r="F127" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="20">
         <v>0</v>
       </c>
     </row>
@@ -14598,7 +14673,7 @@
       </c>
       <c r="C128" s="20"/>
       <c r="D128" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E128" s="19" t="s">
         <v>250</v>
@@ -14606,7 +14681,7 @@
       <c r="F128" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="20">
         <v>0</v>
       </c>
     </row>
@@ -14619,7 +14694,7 @@
       </c>
       <c r="C129" s="20"/>
       <c r="D129" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E129" s="19" t="s">
         <v>250</v>
@@ -14627,7 +14702,7 @@
       <c r="F129" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="20">
         <v>0</v>
       </c>
     </row>
@@ -14640,7 +14715,7 @@
       </c>
       <c r="C130" s="20"/>
       <c r="D130" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E130" s="19" t="s">
         <v>250</v>
@@ -14648,7 +14723,7 @@
       <c r="F130" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="20">
         <v>0</v>
       </c>
     </row>
@@ -14661,7 +14736,7 @@
       </c>
       <c r="C131" s="20"/>
       <c r="D131" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E131" s="19" t="s">
         <v>250</v>
@@ -14669,7 +14744,7 @@
       <c r="F131" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="20">
         <v>0</v>
       </c>
     </row>
@@ -14690,7 +14765,7 @@
       <c r="F132" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="20">
         <v>0</v>
       </c>
     </row>
@@ -14711,7 +14786,7 @@
       <c r="F133" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="20">
         <v>0</v>
       </c>
     </row>
@@ -14724,7 +14799,7 @@
       </c>
       <c r="C134" s="20"/>
       <c r="D134" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E134" s="19" t="s">
         <v>250</v>
@@ -14732,7 +14807,7 @@
       <c r="F134" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="20">
         <v>0</v>
       </c>
     </row>
@@ -14753,7 +14828,7 @@
       <c r="F135" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="20">
         <v>0</v>
       </c>
     </row>
@@ -14774,7 +14849,7 @@
       <c r="F136" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="20">
         <v>0</v>
       </c>
     </row>
@@ -14795,7 +14870,7 @@
       <c r="F137" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="20">
         <v>0</v>
       </c>
     </row>
@@ -14816,7 +14891,7 @@
       <c r="F138" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="20">
         <v>0</v>
       </c>
     </row>
@@ -14829,7 +14904,7 @@
       </c>
       <c r="C139" s="20"/>
       <c r="D139" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" s="19" t="s">
         <v>250</v>
@@ -14837,7 +14912,7 @@
       <c r="F139" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="20">
         <v>0</v>
       </c>
     </row>
@@ -14850,7 +14925,7 @@
       </c>
       <c r="C140" s="20"/>
       <c r="D140" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E140" s="19" t="s">
         <v>250</v>
@@ -14858,7 +14933,7 @@
       <c r="F140" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="20">
         <v>0</v>
       </c>
     </row>
@@ -14934,7 +15009,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>136</v>
       </c>
@@ -14952,7 +15027,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>137</v>
       </c>
@@ -14970,7 +15045,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>138</v>
       </c>
@@ -14988,7 +15063,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>139</v>
       </c>
@@ -15006,7 +15081,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>140</v>
       </c>
@@ -15024,7 +15099,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>141</v>
       </c>
@@ -15042,7 +15117,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>142</v>
       </c>
@@ -15062,7 +15137,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>143</v>
       </c>
@@ -15080,7 +15155,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>144</v>
       </c>
@@ -15098,7 +15173,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>145</v>
       </c>
@@ -15116,7 +15191,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>146</v>
       </c>
@@ -15134,7 +15209,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>147</v>
       </c>
@@ -15152,25 +15227,28 @@
         <v>398</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="17">
         <v>148</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C157"/>
-      <c r="D157">
-        <v>3</v>
-      </c>
-      <c r="E157" s="2" t="s">
+      <c r="C157" s="18"/>
+      <c r="D157" s="18">
+        <v>2</v>
+      </c>
+      <c r="E157" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="18" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>149</v>
       </c>
@@ -15188,7 +15266,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>150</v>
       </c>
@@ -15206,7 +15284,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>151</v>
       </c>
@@ -15224,7 +15302,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>152</v>
       </c>
@@ -15242,25 +15320,28 @@
         <v>397</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="17">
         <v>153</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C162"/>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162" s="2" t="s">
+      <c r="C162" s="18"/>
+      <c r="D162" s="18">
+        <v>1</v>
+      </c>
+      <c r="E162" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>154</v>
       </c>
@@ -15278,7 +15359,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>155</v>
       </c>
@@ -15296,24 +15377,26 @@
         <v>398</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="19">
         <v>156</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="D165">
+      <c r="C165" s="19"/>
+      <c r="D165" s="20">
         <v>0</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E165" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="F165" t="s">
+      <c r="F165" s="20" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="20"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>157</v>
       </c>
@@ -15330,7 +15413,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>158</v>
       </c>
@@ -15347,7 +15430,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="17">
         <v>159</v>
       </c>
@@ -15356,7 +15439,7 @@
       </c>
       <c r="C168" s="17"/>
       <c r="D168" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E168" s="17" t="s">
         <v>250</v>
@@ -15364,25 +15447,30 @@
       <c r="F168" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
+      <c r="G168" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="19">
         <v>160</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="D169">
+      <c r="C169" s="19"/>
+      <c r="D169" s="20">
         <v>0</v>
       </c>
-      <c r="E169" s="2" t="s">
+      <c r="E169" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="20" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G169" s="20"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>161</v>
       </c>
@@ -15400,7 +15488,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>162</v>
       </c>
@@ -15418,7 +15506,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>163</v>
       </c>
@@ -15436,7 +15524,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>164</v>
       </c>
@@ -15454,7 +15542,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>165</v>
       </c>
@@ -15472,7 +15560,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>166</v>
       </c>
@@ -15490,7 +15578,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>167</v>
       </c>
@@ -15665,6 +15753,7 @@
       <c r="F185" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G185" s="5"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="17">
@@ -15683,7 +15772,7 @@
       <c r="F186" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G186">
+      <c r="G186" s="18">
         <v>2</v>
       </c>
     </row>
@@ -15968,6 +16057,9 @@
       <c r="F202" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G202" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="17">
@@ -15986,7 +16078,7 @@
       <c r="F203" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G203">
+      <c r="G203" s="18">
         <v>2</v>
       </c>
     </row>
@@ -16007,7 +16099,7 @@
       <c r="F204" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G204">
+      <c r="G204" s="18">
         <v>2</v>
       </c>
     </row>
@@ -16028,6 +16120,9 @@
       <c r="F205" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G205" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
@@ -16655,7 +16750,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>232</v>
       </c>
@@ -16673,7 +16768,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>233</v>
       </c>
@@ -16691,310 +16786,361 @@
         <v>397</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="17">
         <v>234</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="C243"/>
-      <c r="D243">
-        <v>2</v>
-      </c>
-      <c r="E243" s="2" t="s">
+      <c r="C243" s="18"/>
+      <c r="D243" s="18">
+        <v>3</v>
+      </c>
+      <c r="E243" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="F243" t="s">
+      <c r="F243" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="2">
+      <c r="G243" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="19">
         <v>235</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C244"/>
-      <c r="D244">
-        <v>2</v>
-      </c>
-      <c r="E244" s="2" t="s">
+      <c r="C244" s="20"/>
+      <c r="D244" s="20">
+        <v>0</v>
+      </c>
+      <c r="E244" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="F244" t="s">
+      <c r="F244" s="20" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
+      <c r="G244" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="17">
         <v>236</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="18" t="s">
         <v>225</v>
       </c>
-      <c r="C245"/>
-      <c r="D245">
+      <c r="C245" s="18"/>
+      <c r="D245" s="18">
+        <v>2</v>
+      </c>
+      <c r="E245" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F245" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G245" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="17">
+        <v>237</v>
+      </c>
+      <c r="B246" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C246" s="18"/>
+      <c r="D246" s="18">
         <v>0</v>
       </c>
-      <c r="E245" s="2" t="s">
+      <c r="E246" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="F245" t="s">
+      <c r="F246" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="2">
+      <c r="G246" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="17">
+        <v>238</v>
+      </c>
+      <c r="B247" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C247" s="18"/>
+      <c r="D247" s="18">
+        <v>2</v>
+      </c>
+      <c r="E247" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F247" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G247" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="19">
+        <v>239</v>
+      </c>
+      <c r="B248" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C248" s="20"/>
+      <c r="D248" s="20">
+        <v>0</v>
+      </c>
+      <c r="E248" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="F248" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="G248" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="17">
+        <v>240</v>
+      </c>
+      <c r="B249" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C249" s="18"/>
+      <c r="D249" s="18">
+        <v>2</v>
+      </c>
+      <c r="E249" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F249" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G249" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="19">
+        <v>241</v>
+      </c>
+      <c r="B250" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C250" s="20"/>
+      <c r="D250" s="20">
+        <v>0</v>
+      </c>
+      <c r="E250" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="F250" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="G250" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="17">
+        <v>242</v>
+      </c>
+      <c r="B251" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C251" s="18"/>
+      <c r="D251" s="18">
+        <v>0</v>
+      </c>
+      <c r="E251" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F251" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G251" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="17">
+        <v>243</v>
+      </c>
+      <c r="B252" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C252" s="18"/>
+      <c r="D252" s="18">
+        <v>0</v>
+      </c>
+      <c r="E252" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F252" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G252" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" s="17">
+        <v>244</v>
+      </c>
+      <c r="B253" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C253" s="18"/>
+      <c r="D253" s="18">
+        <v>1</v>
+      </c>
+      <c r="E253" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F253" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G253" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="19">
+        <v>245</v>
+      </c>
+      <c r="B254" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C254" s="20"/>
+      <c r="D254" s="20">
+        <v>0</v>
+      </c>
+      <c r="E254" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="F254" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="G254" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="17">
+        <v>246</v>
+      </c>
+      <c r="B255" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="C255" s="18"/>
+      <c r="D255" s="18">
+        <v>3</v>
+      </c>
+      <c r="E255" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F255" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G255" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="17">
+        <v>247</v>
+      </c>
+      <c r="B256" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C256" s="18"/>
+      <c r="D256" s="18">
+        <v>2</v>
+      </c>
+      <c r="E256" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F256" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G256" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="19">
+        <v>248</v>
+      </c>
+      <c r="B257" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="B246" t="s">
-        <v>226</v>
-      </c>
-      <c r="C246"/>
-      <c r="D246">
-        <v>1</v>
-      </c>
-      <c r="E246" s="2" t="s">
+      <c r="C257" s="20"/>
+      <c r="D257" s="20">
+        <v>0</v>
+      </c>
+      <c r="E257" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="F246" t="s">
+      <c r="F257" s="20" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
-        <v>238</v>
-      </c>
-      <c r="B247" t="s">
-        <v>227</v>
-      </c>
-      <c r="C247"/>
-      <c r="D247">
-        <v>2</v>
-      </c>
-      <c r="E247" s="2" t="s">
+      <c r="G257" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="17">
+        <v>249</v>
+      </c>
+      <c r="B258" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C258" s="18"/>
+      <c r="D258" s="18">
+        <v>4</v>
+      </c>
+      <c r="E258" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="F247" t="s">
+      <c r="F258" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="2">
-        <v>239</v>
-      </c>
-      <c r="B248" t="s">
-        <v>228</v>
-      </c>
-      <c r="C248"/>
-      <c r="D248">
-        <v>0</v>
-      </c>
-      <c r="E248" s="2" t="s">
+      <c r="G258" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" s="17">
+        <v>250</v>
+      </c>
+      <c r="B259" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C259" s="18"/>
+      <c r="D259" s="18">
+        <v>2</v>
+      </c>
+      <c r="E259" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="F248" t="s">
+      <c r="F259" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
-        <v>240</v>
-      </c>
-      <c r="B249" t="s">
-        <v>229</v>
-      </c>
-      <c r="C249"/>
-      <c r="D249">
-        <v>2</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F249" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="2">
-        <v>241</v>
-      </c>
-      <c r="B250" t="s">
-        <v>230</v>
-      </c>
-      <c r="C250"/>
-      <c r="D250">
-        <v>2</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F250" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
-        <v>242</v>
-      </c>
-      <c r="B251" t="s">
-        <v>231</v>
-      </c>
-      <c r="C251"/>
-      <c r="D251">
-        <v>0</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F251" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
-        <v>243</v>
-      </c>
-      <c r="B252" t="s">
-        <v>232</v>
-      </c>
-      <c r="C252"/>
-      <c r="D252">
-        <v>0</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F252" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="2">
-        <v>244</v>
-      </c>
-      <c r="B253" t="s">
-        <v>233</v>
-      </c>
-      <c r="C253"/>
-      <c r="D253">
-        <v>2</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F253" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="2">
-        <v>245</v>
-      </c>
-      <c r="B254" t="s">
-        <v>234</v>
-      </c>
-      <c r="C254"/>
-      <c r="D254">
-        <v>2</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F254" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="2">
-        <v>246</v>
-      </c>
-      <c r="B255" t="s">
-        <v>235</v>
-      </c>
-      <c r="C255"/>
-      <c r="D255">
-        <v>2</v>
-      </c>
-      <c r="E255" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F255" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
-        <v>247</v>
-      </c>
-      <c r="B256" t="s">
-        <v>236</v>
-      </c>
-      <c r="C256"/>
-      <c r="D256">
-        <v>2</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F256" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
-        <v>248</v>
-      </c>
-      <c r="B257" t="s">
-        <v>237</v>
-      </c>
-      <c r="C257"/>
-      <c r="D257">
-        <v>2</v>
-      </c>
-      <c r="E257" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F257" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
-        <v>249</v>
-      </c>
-      <c r="B258" t="s">
-        <v>221</v>
-      </c>
-      <c r="C258"/>
-      <c r="D258">
-        <v>2</v>
-      </c>
-      <c r="E258" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F258" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
-        <v>250</v>
-      </c>
-      <c r="B259" t="s">
-        <v>222</v>
-      </c>
-      <c r="C259"/>
-      <c r="D259">
-        <v>2</v>
-      </c>
-      <c r="E259" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F259" t="s">
-        <v>398</v>
+      <c r="G259" s="18">
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -17006,7 +17152,7 @@
       </c>
       <c r="C260" s="18"/>
       <c r="D260" s="18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E260" s="17" t="s">
         <v>363</v>
@@ -17014,26 +17160,29 @@
       <c r="F260" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G260">
+      <c r="G260" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
+      <c r="A261" s="17">
         <v>252</v>
       </c>
-      <c r="B261" s="12" t="s">
+      <c r="B261" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="C261"/>
-      <c r="D261">
-        <v>3</v>
-      </c>
-      <c r="E261" s="2" t="s">
+      <c r="C261" s="18"/>
+      <c r="D261" s="18">
+        <v>4</v>
+      </c>
+      <c r="E261" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="F261" t="s">
+      <c r="F261" s="18" t="s">
         <v>398</v>
+      </c>
+      <c r="G261" s="18">
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -17055,58 +17204,63 @@
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="2">
+      <c r="A263" s="17">
         <v>254</v>
       </c>
-      <c r="B263" s="12" t="s">
+      <c r="B263" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C263"/>
-      <c r="D263">
-        <v>2</v>
-      </c>
-      <c r="E263" s="2" t="s">
+      <c r="C263" s="18"/>
+      <c r="D263" s="18">
+        <v>2</v>
+      </c>
+      <c r="E263" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="F263" t="s">
+      <c r="F263" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G263" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="2">
+      <c r="A264" s="19">
         <v>255</v>
       </c>
-      <c r="B264" s="12" t="s">
+      <c r="B264" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="C264"/>
-      <c r="D264">
+      <c r="C264" s="20"/>
+      <c r="D264" s="20">
         <v>0</v>
       </c>
-      <c r="E264" s="2" t="s">
+      <c r="E264" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="F264" t="s">
+      <c r="F264" s="20" t="s">
         <v>398</v>
       </c>
+      <c r="G264" s="20"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="2">
+      <c r="A265" s="19">
         <v>256</v>
       </c>
-      <c r="B265" s="12" t="s">
+      <c r="B265" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="C265"/>
-      <c r="D265">
+      <c r="C265" s="20"/>
+      <c r="D265" s="20">
         <v>0</v>
       </c>
-      <c r="E265" s="2" t="s">
+      <c r="E265" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="F265" t="s">
+      <c r="F265" s="20" t="s">
         <v>398</v>
       </c>
+      <c r="G265" s="20"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
@@ -17348,20 +17502,20 @@
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="4">
+      <c r="A279" s="6">
         <v>270</v>
       </c>
-      <c r="B279" s="5" t="s">
+      <c r="B279" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C279" s="4"/>
-      <c r="D279" s="5">
+      <c r="C279" s="6"/>
+      <c r="D279" s="7">
         <v>1</v>
       </c>
-      <c r="E279" s="4" t="s">
+      <c r="E279" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="F279" s="5" t="s">
+      <c r="F279" s="7" t="s">
         <v>397</v>
       </c>
     </row>
@@ -17432,7 +17586,7 @@
       <c r="F283" t="s">
         <v>398</v>
       </c>
-      <c r="G283" s="5"/>
+      <c r="G283" s="7"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
@@ -17905,6 +18059,7 @@
       <c r="F309" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G309" s="5"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
@@ -17912,7 +18067,7 @@
       </c>
       <c r="G310">
         <f>SUM(G2:G309)</f>
-        <v>70</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -17925,7 +18080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
+    <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/incrediblejournEYBEEwithyou/guestlist - 25.2.xlsx
+++ b/incrediblejournEYBEEwithyou/guestlist - 25.2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2762" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2765" uniqueCount="423">
   <si>
     <t>bunte</t>
   </si>
@@ -1290,6 +1290,9 @@
   </si>
   <si>
     <t>Bee</t>
+  </si>
+  <si>
+    <t>Oh Herry</t>
   </si>
 </sst>
 </file>
@@ -1440,7 +1443,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Mbep" refreshedDate="43492.398118865742" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="293">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:E304" sheet="DETAIL (EDIT)"/>
+    <worksheetSource ref="B1:E305" sheet="DETAIL (EDIT)"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="N. PANGGILAN" numFmtId="0">
@@ -1820,7 +1823,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Mbep" refreshedDate="43492.42098101852" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="293">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:F304" sheet="DETAIL (EDIT)"/>
+    <worksheetSource ref="B1:F305" sheet="DETAIL (EDIT)"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="N. PANGGILAN" numFmtId="0">
@@ -9633,7 +9636,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12179,10 +12182,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L310"/>
+  <dimension ref="A1:L311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="G233" sqref="G233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12219,8 +12222,8 @@
         <v>400</v>
       </c>
       <c r="L1">
-        <f>SUM(D2:D276)</f>
-        <v>421</v>
+        <f>SUM(D2:D277)</f>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -13856,38 +13859,42 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="A84" s="17">
         <v>75</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84" s="2" t="s">
+      <c r="C84" s="17"/>
+      <c r="D84" s="18">
+        <v>2</v>
+      </c>
+      <c r="E84" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G84" s="5"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="A85" s="17">
         <v>76</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="E85" s="2" t="s">
+      <c r="C85" s="17"/>
+      <c r="D85" s="18">
+        <v>2</v>
+      </c>
+      <c r="E85" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G85" s="5"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -14036,48 +14043,50 @@
       <c r="G93" s="5"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+      <c r="A94" s="17">
         <v>85</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-      <c r="E94" s="2" t="s">
+      <c r="C94" s="17"/>
+      <c r="D94" s="18">
+        <v>2</v>
+      </c>
+      <c r="E94" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="18" t="s">
         <v>398</v>
       </c>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
-        <v>86</v>
-      </c>
-      <c r="B95" t="s">
-        <v>403</v>
-      </c>
-      <c r="D95">
-        <v>4</v>
-      </c>
-      <c r="E95" s="2" t="s">
+      <c r="A95" s="6"/>
+      <c r="B95" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="C95" s="6"/>
+      <c r="D95" s="7">
+        <v>2</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="F95" t="s">
-        <v>397</v>
-      </c>
+      <c r="F95" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G95" s="7"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B96" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>211</v>
@@ -14087,30 +14096,28 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="17">
-        <v>88</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="C97" s="17"/>
-      <c r="D97" s="18">
-        <v>2</v>
-      </c>
-      <c r="E97" s="17" t="s">
+      <c r="A97" s="2">
+        <v>87</v>
+      </c>
+      <c r="B97" t="s">
+        <v>404</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F97" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="G97" s="5"/>
+      <c r="F97" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="17">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C98" s="17"/>
       <c r="D98" s="18">
@@ -14125,31 +14132,33 @@
       <c r="G98" s="5"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>90</v>
-      </c>
-      <c r="B99" t="s">
-        <v>338</v>
-      </c>
-      <c r="D99">
-        <v>4</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="A99" s="17">
+        <v>89</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="C99" s="17"/>
+      <c r="D99" s="18">
+        <v>2</v>
+      </c>
+      <c r="E99" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="F99" t="s">
-        <v>397</v>
-      </c>
+      <c r="F99" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G99" s="5"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B100" t="s">
-        <v>407</v>
+        <v>338</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>211</v>
@@ -14159,53 +14168,53 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="17">
+      <c r="A101" s="2">
+        <v>91</v>
+      </c>
+      <c r="B101" t="s">
+        <v>407</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F101" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="17">
         <v>92</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B102" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C101" s="17"/>
-      <c r="D101" s="18">
-        <v>2</v>
-      </c>
-      <c r="E101" s="17" t="s">
+      <c r="C102" s="17"/>
+      <c r="D102" s="18">
+        <v>2</v>
+      </c>
+      <c r="E102" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="F101" s="18" t="s">
+      <c r="F102" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G101" s="5"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>93</v>
-      </c>
-      <c r="B102" t="s">
-        <v>248</v>
-      </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F102" t="s">
-        <v>397</v>
-      </c>
+      <c r="G102" s="5"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B103" t="s">
-        <v>364</v>
+        <v>248</v>
       </c>
       <c r="D103">
         <v>2</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>365</v>
+        <v>211</v>
       </c>
       <c r="F103" t="s">
         <v>397</v>
@@ -14213,10 +14222,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B104" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -14230,10 +14239,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B105" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -14247,10 +14256,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B106" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -14264,13 +14273,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B107" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>365</v>
@@ -14281,10 +14290,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B108" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -14298,10 +14307,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B109" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -14315,10 +14324,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B110" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -14332,52 +14341,48 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B111" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="F111" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="17">
-        <v>103</v>
-      </c>
-      <c r="B112" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18">
-        <v>3</v>
-      </c>
-      <c r="E112" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="F112" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="G112" s="18">
-        <v>3</v>
+      <c r="A112" s="2">
+        <v>102</v>
+      </c>
+      <c r="B112" t="s">
+        <v>405</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F112" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="17">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C113" s="18"/>
       <c r="D113" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E113" s="17" t="s">
         <v>250</v>
@@ -14386,15 +14391,15 @@
         <v>398</v>
       </c>
       <c r="G113" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="17">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C114" s="18"/>
       <c r="D114" s="18">
@@ -14412,14 +14417,14 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="17">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C115" s="18"/>
       <c r="D115" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E115" s="17" t="s">
         <v>250</v>
@@ -14428,37 +14433,40 @@
         <v>398</v>
       </c>
       <c r="G115" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="17">
+        <v>106</v>
+      </c>
+      <c r="B116" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18">
         <v>4</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>107</v>
-      </c>
-      <c r="B116" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116"/>
-      <c r="D116">
-        <v>2</v>
-      </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F116" t="s">
-        <v>397</v>
+      <c r="F116" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G116" s="18">
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C117"/>
       <c r="D117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>250</v>
@@ -14469,10 +14477,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C118"/>
       <c r="D118">
@@ -14486,30 +14494,29 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="17">
-        <v>110</v>
-      </c>
-      <c r="B119" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18">
-        <v>2</v>
-      </c>
-      <c r="E119" s="17" t="s">
+      <c r="A119" s="2">
+        <v>109</v>
+      </c>
+      <c r="B119" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119"/>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F119" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="G119" s="5"/>
+      <c r="F119" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="17">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C120" s="18"/>
       <c r="D120" s="18">
@@ -14525,10 +14532,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="17">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C121" s="18"/>
       <c r="D121" s="18">
@@ -14543,32 +14550,30 @@
       <c r="G121" s="5"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="19">
-        <v>113</v>
-      </c>
-      <c r="B122" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="C122" s="20"/>
-      <c r="D122" s="20">
-        <v>0</v>
-      </c>
-      <c r="E122" s="19" t="s">
+      <c r="A122" s="17">
+        <v>112</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18">
+        <v>2</v>
+      </c>
+      <c r="E122" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F122" s="20" t="s">
+      <c r="F122" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G122" s="20">
-        <v>0</v>
-      </c>
+      <c r="G122" s="5"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="19">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C123" s="20"/>
       <c r="D123" s="20">
@@ -14585,91 +14590,91 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="17">
+      <c r="A124" s="19">
+        <v>114</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="C124" s="20"/>
+      <c r="D124" s="20">
+        <v>0</v>
+      </c>
+      <c r="E124" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="F124" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="G124" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="17">
         <v>115</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B125" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18">
+      <c r="C125" s="18"/>
+      <c r="D125" s="18">
         <v>1</v>
       </c>
-      <c r="E124" s="17" t="s">
+      <c r="E125" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F124" s="18" t="s">
+      <c r="F125" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G124" s="18">
+      <c r="G125" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="2">
         <v>116</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>378</v>
       </c>
-      <c r="D125">
+      <c r="D126">
         <v>0</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F126" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="17">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="17">
         <v>117</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B127" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18">
+      <c r="C127" s="18"/>
+      <c r="D127" s="18">
         <v>0</v>
       </c>
-      <c r="E126" s="17" t="s">
+      <c r="E127" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F126" s="18" t="s">
+      <c r="F127" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G126" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="19">
-        <v>118</v>
-      </c>
-      <c r="B127" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C127" s="20"/>
-      <c r="D127" s="20">
-        <v>0</v>
-      </c>
-      <c r="E127" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="F127" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="G127" s="20">
+      <c r="G127" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="19">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C128" s="20"/>
       <c r="D128" s="20">
@@ -14687,10 +14692,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="19">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C129" s="20"/>
       <c r="D129" s="20">
@@ -14708,10 +14713,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="19">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C130" s="20"/>
       <c r="D130" s="20">
@@ -14729,10 +14734,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="19">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C131" s="20"/>
       <c r="D131" s="20">
@@ -14750,10 +14755,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="19">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="C132" s="20"/>
       <c r="D132" s="20">
@@ -14771,10 +14776,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="19">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="C133" s="20"/>
       <c r="D133" s="20">
@@ -14792,10 +14797,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="19">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C134" s="20"/>
       <c r="D134" s="20">
@@ -14813,10 +14818,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="19">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C135" s="20"/>
       <c r="D135" s="20">
@@ -14834,10 +14839,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="19">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C136" s="20"/>
       <c r="D136" s="20">
@@ -14855,10 +14860,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="19">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C137" s="20"/>
       <c r="D137" s="20">
@@ -14876,10 +14881,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="19">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C138" s="20"/>
       <c r="D138" s="20">
@@ -14897,10 +14902,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="19">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C139" s="20"/>
       <c r="D139" s="20">
@@ -14918,10 +14923,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="19">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C140" s="20"/>
       <c r="D140" s="20">
@@ -14938,33 +14943,36 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
-        <v>132</v>
-      </c>
-      <c r="B141" t="s">
-        <v>39</v>
-      </c>
-      <c r="C141"/>
-      <c r="D141">
-        <v>2</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F141" t="s">
-        <v>397</v>
+      <c r="A141" s="19">
+        <v>131</v>
+      </c>
+      <c r="B141" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C141" s="20"/>
+      <c r="D141" s="20">
+        <v>0</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="F141" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="G141" s="20">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C142"/>
       <c r="D142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>251</v>
@@ -14975,14 +14983,14 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C143"/>
       <c r="D143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>251</v>
@@ -14993,14 +15001,14 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C144"/>
       <c r="D144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>251</v>
@@ -15011,14 +15019,14 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C145"/>
       <c r="D145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>251</v>
@@ -15029,14 +15037,14 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C146"/>
       <c r="D146">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>251</v>
@@ -15047,14 +15055,14 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B147" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C147"/>
       <c r="D147">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>251</v>
@@ -15065,50 +15073,50 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C148"/>
       <c r="D148">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F148" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B149" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C149"/>
       <c r="D149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F149" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C150"/>
       <c r="D150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>251</v>
@@ -15119,14 +15127,12 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B151" t="s">
-        <v>323</v>
-      </c>
-      <c r="C151" t="s">
-        <v>324</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C151"/>
       <c r="D151">
         <v>2</v>
       </c>
@@ -15139,12 +15145,14 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B152" t="s">
-        <v>49</v>
-      </c>
-      <c r="C152"/>
+        <v>323</v>
+      </c>
+      <c r="C152" t="s">
+        <v>324</v>
+      </c>
       <c r="D152">
         <v>2</v>
       </c>
@@ -15152,69 +15160,70 @@
         <v>251</v>
       </c>
       <c r="F152" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B153" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C153"/>
       <c r="D153">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F153" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B154" t="s">
-        <v>319</v>
+        <v>50</v>
       </c>
       <c r="C154"/>
       <c r="D154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F154" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="17">
+        <v>145</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18">
+        <v>3</v>
+      </c>
+      <c r="E155" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F155" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
-        <v>146</v>
-      </c>
-      <c r="B155" t="s">
-        <v>51</v>
-      </c>
-      <c r="C155"/>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F155" t="s">
-        <v>398</v>
-      </c>
+      <c r="G155" s="5"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B156" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C156"/>
       <c r="D156">
@@ -15228,54 +15237,54 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="17">
+      <c r="A157" s="2">
+        <v>147</v>
+      </c>
+      <c r="B157" t="s">
+        <v>52</v>
+      </c>
+      <c r="C157"/>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F157" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="17">
         <v>148</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="B158" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C157" s="18"/>
-      <c r="D157" s="18">
-        <v>2</v>
-      </c>
-      <c r="E157" s="17" t="s">
+      <c r="C158" s="18"/>
+      <c r="D158" s="18">
+        <v>2</v>
+      </c>
+      <c r="E158" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="F157" s="18" t="s">
+      <c r="F158" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="G157" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
-        <v>149</v>
-      </c>
-      <c r="B158" t="s">
-        <v>54</v>
-      </c>
-      <c r="C158"/>
-      <c r="D158">
-        <v>1</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F158" t="s">
-        <v>398</v>
+      <c r="G158" s="18">
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B159" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C159"/>
       <c r="D159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>251</v>
@@ -15286,28 +15295,28 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B160" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C160"/>
       <c r="D160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F160" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B161" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C161"/>
       <c r="D161">
@@ -15321,104 +15330,105 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="17">
+      <c r="A162" s="2">
+        <v>152</v>
+      </c>
+      <c r="B162" t="s">
+        <v>57</v>
+      </c>
+      <c r="C162"/>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F162" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="17">
         <v>153</v>
       </c>
-      <c r="B162" s="18" t="s">
+      <c r="B163" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C162" s="18"/>
-      <c r="D162" s="18">
+      <c r="C163" s="18"/>
+      <c r="D163" s="18">
         <v>1</v>
       </c>
-      <c r="E162" s="17" t="s">
+      <c r="E163" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="F162" s="18" t="s">
+      <c r="F163" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G162" s="18">
+      <c r="G163" s="18">
         <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
-        <v>154</v>
-      </c>
-      <c r="B163" t="s">
-        <v>59</v>
-      </c>
-      <c r="C163"/>
-      <c r="D163">
-        <v>0</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F163" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B164" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C164"/>
       <c r="D164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F164" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="2">
+        <v>155</v>
+      </c>
+      <c r="B165" t="s">
+        <v>60</v>
+      </c>
+      <c r="C165"/>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F165" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="19">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="19">
         <v>156</v>
       </c>
-      <c r="B165" s="20" t="s">
+      <c r="B166" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="C165" s="19"/>
-      <c r="D165" s="20">
+      <c r="C166" s="19"/>
+      <c r="D166" s="20">
         <v>0</v>
       </c>
-      <c r="E165" s="19" t="s">
+      <c r="E166" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="F165" s="20" t="s">
+      <c r="F166" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G165" s="20"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
-        <v>157</v>
-      </c>
-      <c r="B166" t="s">
-        <v>255</v>
-      </c>
-      <c r="D166">
-        <v>2</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F166" t="s">
-        <v>397</v>
-      </c>
+      <c r="G166" s="20"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B167" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="D167">
         <v>2</v>
@@ -15431,69 +15441,70 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="17">
+      <c r="A168" s="19">
+        <v>158</v>
+      </c>
+      <c r="B168" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="C168" s="19"/>
+      <c r="D168" s="20">
+        <v>2</v>
+      </c>
+      <c r="E168" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="F168" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="G168" s="20"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="17">
         <v>159</v>
       </c>
-      <c r="B168" s="18" t="s">
+      <c r="B169" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="C168" s="17"/>
-      <c r="D168" s="18">
+      <c r="C169" s="17"/>
+      <c r="D169" s="18">
         <v>1</v>
       </c>
-      <c r="E168" s="17" t="s">
+      <c r="E169" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F168" s="18" t="s">
+      <c r="F169" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G168" s="18">
+      <c r="G169" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="19">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="19">
         <v>160</v>
       </c>
-      <c r="B169" s="20" t="s">
+      <c r="B170" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="C169" s="19"/>
-      <c r="D169" s="20">
+      <c r="C170" s="19"/>
+      <c r="D170" s="20">
         <v>0</v>
       </c>
-      <c r="E169" s="19" t="s">
+      <c r="E170" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="F169" s="20" t="s">
+      <c r="F170" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="G169" s="20"/>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
-        <v>161</v>
-      </c>
-      <c r="B170" t="s">
-        <v>61</v>
-      </c>
-      <c r="C170"/>
-      <c r="D170">
-        <v>2</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F170" t="s">
-        <v>398</v>
-      </c>
+      <c r="G170" s="20"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B171" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C171"/>
       <c r="D171">
@@ -15508,10 +15519,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B172" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C172"/>
       <c r="D172">
@@ -15526,14 +15537,14 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B173" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C173"/>
       <c r="D173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>341</v>
@@ -15544,14 +15555,14 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B174" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C174"/>
       <c r="D174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>341</v>
@@ -15562,14 +15573,14 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B175" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C175"/>
       <c r="D175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>341</v>
@@ -15580,10 +15591,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B176" t="s">
-        <v>300</v>
+        <v>66</v>
       </c>
       <c r="C176"/>
       <c r="D176">
@@ -15598,10 +15609,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B177" t="s">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="C177"/>
       <c r="D177">
@@ -15616,10 +15627,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B178" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C178"/>
       <c r="D178">
@@ -15634,10 +15645,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B179" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C179"/>
       <c r="D179">
@@ -15652,10 +15663,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B180" t="s">
-        <v>296</v>
+        <v>69</v>
       </c>
       <c r="C180"/>
       <c r="D180">
@@ -15670,11 +15681,12 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B181" t="s">
-        <v>297</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="C181"/>
       <c r="D181">
         <v>0</v>
       </c>
@@ -15687,10 +15699,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B182" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -15704,10 +15716,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B183" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D183">
         <v>0</v>
@@ -15721,13 +15733,13 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B184" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>341</v>
@@ -15737,30 +15749,28 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="17">
-        <v>176</v>
-      </c>
-      <c r="B185" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C185" s="18"/>
-      <c r="D185" s="18">
-        <v>2</v>
-      </c>
-      <c r="E185" s="17" t="s">
+      <c r="A185" s="2">
+        <v>175</v>
+      </c>
+      <c r="B185" t="s">
+        <v>318</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F185" s="18" t="s">
+      <c r="F185" t="s">
         <v>398</v>
       </c>
-      <c r="G185" s="5"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="17">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B186" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C186" s="18"/>
       <c r="D186" s="18">
@@ -15772,38 +15782,39 @@
       <c r="F186" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G186" s="18">
-        <v>2</v>
-      </c>
+      <c r="G186" s="5"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
-        <v>178</v>
-      </c>
-      <c r="B187" t="s">
-        <v>77</v>
-      </c>
-      <c r="C187"/>
-      <c r="D187">
-        <v>2</v>
-      </c>
-      <c r="E187" s="2" t="s">
+      <c r="A187" s="17">
+        <v>177</v>
+      </c>
+      <c r="B187" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C187" s="18"/>
+      <c r="D187" s="18">
+        <v>2</v>
+      </c>
+      <c r="E187" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="18" t="s">
         <v>398</v>
+      </c>
+      <c r="G187" s="18">
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B188" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C188"/>
       <c r="D188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>341</v>
@@ -15814,14 +15825,14 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B189" t="s">
-        <v>259</v>
+        <v>78</v>
       </c>
       <c r="C189"/>
       <c r="D189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>341</v>
@@ -15832,10 +15843,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B190" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="C190"/>
       <c r="D190">
@@ -15850,10 +15861,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B191" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C191"/>
       <c r="D191">
@@ -15868,10 +15879,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B192" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C192"/>
       <c r="D192">
@@ -15886,10 +15897,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B193" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C193"/>
       <c r="D193">
@@ -15904,10 +15915,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B194" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="C194"/>
       <c r="D194">
@@ -15922,14 +15933,14 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B195" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C195"/>
       <c r="D195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>341</v>
@@ -15940,13 +15951,14 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B196" t="s">
-        <v>258</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="C196"/>
       <c r="D196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>341</v>
@@ -15957,13 +15969,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B197" t="s">
-        <v>410</v>
+        <v>258</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>341</v>
@@ -15974,13 +15986,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B198" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>341</v>
@@ -15991,13 +16003,13 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B199" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E199" s="2" t="s">
         <v>341</v>
@@ -16008,13 +16020,13 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B200" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>341</v>
@@ -16025,10 +16037,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B201" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D201">
         <v>2</v>
@@ -16041,32 +16053,28 @@
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="17">
-        <v>193</v>
-      </c>
-      <c r="B202" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="C202" s="18"/>
-      <c r="D202" s="18">
-        <v>2</v>
-      </c>
-      <c r="E202" s="17" t="s">
+      <c r="A202" s="2">
+        <v>192</v>
+      </c>
+      <c r="B202" t="s">
+        <v>414</v>
+      </c>
+      <c r="D202">
+        <v>2</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F202" s="18" t="s">
+      <c r="F202" t="s">
         <v>398</v>
-      </c>
-      <c r="G202" s="18">
-        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="17">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B203" s="18" t="s">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="C203" s="18"/>
       <c r="D203" s="18">
@@ -16084,10 +16092,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="17">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C204" s="18"/>
       <c r="D204" s="18">
@@ -16105,10 +16113,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="17">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B205" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C205" s="18"/>
       <c r="D205" s="18">
@@ -16125,30 +16133,34 @@
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
-        <v>197</v>
-      </c>
-      <c r="B206" t="s">
-        <v>86</v>
-      </c>
-      <c r="C206"/>
-      <c r="D206">
-        <v>2</v>
-      </c>
-      <c r="E206" s="2" t="s">
+      <c r="A206" s="17">
+        <v>196</v>
+      </c>
+      <c r="B206" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C206" s="18"/>
+      <c r="D206" s="18">
+        <v>2</v>
+      </c>
+      <c r="E206" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="F206" t="s">
+      <c r="F206" s="18" t="s">
         <v>398</v>
+      </c>
+      <c r="G206" s="18">
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B207" t="s">
-        <v>320</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C207"/>
       <c r="D207">
         <v>2</v>
       </c>
@@ -16161,12 +16173,11 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B208" t="s">
-        <v>106</v>
-      </c>
-      <c r="C208"/>
+        <v>320</v>
+      </c>
       <c r="D208">
         <v>2</v>
       </c>
@@ -16177,12 +16188,12 @@
         <v>398</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B209" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C209"/>
       <c r="D209">
@@ -16195,12 +16206,12 @@
         <v>398</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B210" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C210"/>
       <c r="D210">
@@ -16213,16 +16224,16 @@
         <v>398</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B211" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C211"/>
       <c r="D211">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>341</v>
@@ -16231,16 +16242,16 @@
         <v>398</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B212" t="s">
-        <v>321</v>
+        <v>102</v>
       </c>
       <c r="C212"/>
       <c r="D212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>341</v>
@@ -16249,12 +16260,12 @@
         <v>398</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B213" t="s">
-        <v>103</v>
+        <v>321</v>
       </c>
       <c r="C213"/>
       <c r="D213">
@@ -16267,16 +16278,16 @@
         <v>398</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B214" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C214"/>
       <c r="D214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>341</v>
@@ -16285,16 +16296,16 @@
         <v>398</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B215" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C215"/>
       <c r="D215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>341</v>
@@ -16303,15 +16314,16 @@
         <v>398</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B216" t="s">
-        <v>328</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C216"/>
       <c r="D216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>341</v>
@@ -16320,15 +16332,15 @@
         <v>398</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B217" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>341</v>
@@ -16337,389 +16349,431 @@
         <v>398</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B218" t="s">
-        <v>87</v>
-      </c>
-      <c r="C218"/>
+        <v>340</v>
+      </c>
       <c r="D218">
         <v>2</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F218" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" s="17">
+        <v>209</v>
+      </c>
+      <c r="B219" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C219" s="18"/>
+      <c r="D219" s="18">
+        <v>2</v>
+      </c>
+      <c r="E219" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="F219" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G219" s="5"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="17">
         <v>210</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B220" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C219"/>
-      <c r="D219">
-        <v>2</v>
-      </c>
-      <c r="E219" s="2" t="s">
+      <c r="C220" s="18"/>
+      <c r="D220" s="18">
+        <v>2</v>
+      </c>
+      <c r="E220" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F219" t="s">
+      <c r="F220" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
+      <c r="G220" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="19">
         <v>211</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B221" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C220"/>
-      <c r="D220">
-        <v>2</v>
-      </c>
-      <c r="E220" s="2" t="s">
+      <c r="C221" s="20"/>
+      <c r="D221" s="20">
+        <v>2</v>
+      </c>
+      <c r="E221" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="F220" t="s">
+      <c r="F221" s="20" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
+      <c r="G221" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="17">
         <v>212</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B222" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C221"/>
-      <c r="D221">
+      <c r="C222" s="18"/>
+      <c r="D222" s="18">
         <v>0</v>
       </c>
-      <c r="E221" s="2" t="s">
+      <c r="E222" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F221" t="s">
+      <c r="F222" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
+      <c r="G222" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="17">
         <v>213</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B223" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C222"/>
-      <c r="D222">
+      <c r="C223" s="18"/>
+      <c r="D223" s="18">
         <v>0</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="E223" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F223" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
+      <c r="G223" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="17">
         <v>214</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C223"/>
-      <c r="D223">
-        <v>2</v>
-      </c>
-      <c r="E223" s="2" t="s">
+      <c r="C224" s="18"/>
+      <c r="D224" s="18">
+        <v>2</v>
+      </c>
+      <c r="E224" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F224" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
+      <c r="G224" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="17">
         <v>215</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C224"/>
-      <c r="D224">
+      <c r="C225" s="18"/>
+      <c r="D225" s="18">
         <v>0</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="E225" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F225" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
+      <c r="G225" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="17">
         <v>216</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B226" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C225"/>
-      <c r="D225">
-        <v>2</v>
-      </c>
-      <c r="E225" s="2" t="s">
+      <c r="C226" s="18"/>
+      <c r="D226" s="18">
+        <v>2</v>
+      </c>
+      <c r="E226" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F226" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
+      <c r="G226" s="5"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="17">
         <v>217</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B227" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C226"/>
-      <c r="D226">
+      <c r="C227" s="18"/>
+      <c r="D227" s="18">
         <v>0</v>
       </c>
-      <c r="E226" s="2" t="s">
+      <c r="E227" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F226" t="s">
+      <c r="F227" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
+      <c r="G227" s="5"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="17">
         <v>218</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B228" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C227"/>
-      <c r="D227">
+      <c r="C228" s="18"/>
+      <c r="D228" s="18">
         <v>0</v>
       </c>
-      <c r="E227" s="2" t="s">
+      <c r="E228" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F227" t="s">
+      <c r="F228" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
+      <c r="G228" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="17">
         <v>219</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B229" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C228"/>
-      <c r="D228">
+      <c r="C229" s="18"/>
+      <c r="D229" s="18">
         <v>1</v>
       </c>
-      <c r="E228" s="2" t="s">
+      <c r="E229" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F229" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
+      <c r="G229" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="19">
         <v>220</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B230" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C229"/>
-      <c r="D229">
-        <v>2</v>
-      </c>
-      <c r="E229" s="2" t="s">
+      <c r="C230" s="20"/>
+      <c r="D230" s="20">
+        <v>2</v>
+      </c>
+      <c r="E230" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="F229" t="s">
+      <c r="F230" s="20" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
+      <c r="G230" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="19">
         <v>221</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C230"/>
-      <c r="D230">
+      <c r="C231" s="20"/>
+      <c r="D231" s="20">
         <v>1</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="E231" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="F230" t="s">
+      <c r="F231" s="20" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
+      <c r="G231" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" s="17">
         <v>222</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C231"/>
-      <c r="D231">
+      <c r="C232" s="18"/>
+      <c r="D232" s="18">
         <v>0</v>
       </c>
-      <c r="E231" s="2" t="s">
+      <c r="E232" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F232" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
+      <c r="G232" s="5"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" s="17">
         <v>223</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B233" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C232"/>
-      <c r="D232">
+      <c r="C233" s="18"/>
+      <c r="D233" s="18">
         <v>0</v>
       </c>
-      <c r="E232" s="2" t="s">
+      <c r="E233" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F233" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
+      <c r="G233" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" s="17">
         <v>224</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B234" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C233"/>
-      <c r="D233">
+      <c r="C234" s="18"/>
+      <c r="D234" s="18">
         <v>0</v>
       </c>
-      <c r="E233" s="2" t="s">
+      <c r="E234" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F233" t="s">
+      <c r="F234" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
+      <c r="G234" s="5"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" s="17">
         <v>225</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B235" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C234"/>
-      <c r="D234">
+      <c r="C235" s="18"/>
+      <c r="D235" s="18">
         <v>0</v>
       </c>
-      <c r="E234" s="2" t="s">
+      <c r="E235" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F234" t="s">
+      <c r="F235" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
+      <c r="G235" s="5"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" s="17">
         <v>226</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B236" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C235"/>
-      <c r="D235">
+      <c r="C236" s="18"/>
+      <c r="D236" s="18">
         <v>0</v>
       </c>
-      <c r="E235" s="2" t="s">
+      <c r="E236" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F235" t="s">
+      <c r="F236" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
+      <c r="G236" s="5"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" s="17">
         <v>227</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B237" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="C236"/>
-      <c r="D236">
+      <c r="C237" s="18"/>
+      <c r="D237" s="18">
         <v>0</v>
       </c>
-      <c r="E236" s="2" t="s">
+      <c r="E237" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F236" t="s">
+      <c r="F237" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
+      <c r="G237" s="5"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" s="17">
         <v>228</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B238" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="D237">
-        <v>2</v>
-      </c>
-      <c r="E237" s="2" t="s">
+      <c r="C238" s="17"/>
+      <c r="D238" s="18">
+        <v>2</v>
+      </c>
+      <c r="E238" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="F237" t="s">
+      <c r="F238" s="18" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
+      <c r="G238" s="5"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" s="2">
         <v>229</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>107</v>
-      </c>
-      <c r="C238"/>
-      <c r="D238">
-        <v>2</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F238" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
-        <v>230</v>
-      </c>
-      <c r="B239" t="s">
-        <v>108</v>
       </c>
       <c r="C239"/>
       <c r="D239">
@@ -16732,12 +16786,12 @@
         <v>397</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B240" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C240"/>
       <c r="D240">
@@ -16752,10 +16806,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B241" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C241"/>
       <c r="D241">
@@ -16770,10 +16824,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B242" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C242"/>
       <c r="D242">
@@ -16787,78 +16841,75 @@
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="17">
+      <c r="A243" s="2">
+        <v>233</v>
+      </c>
+      <c r="B243" t="s">
+        <v>111</v>
+      </c>
+      <c r="C243"/>
+      <c r="D243">
+        <v>2</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F243" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="17">
         <v>234</v>
       </c>
-      <c r="B243" s="18" t="s">
+      <c r="B244" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="C243" s="18"/>
-      <c r="D243" s="18">
+      <c r="C244" s="18"/>
+      <c r="D244" s="18">
         <v>3</v>
       </c>
-      <c r="E243" s="17" t="s">
+      <c r="E244" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="F243" s="18" t="s">
+      <c r="F244" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G243" s="18">
+      <c r="G244" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="19">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="19">
         <v>235</v>
       </c>
-      <c r="B244" s="20" t="s">
+      <c r="B245" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C244" s="20"/>
-      <c r="D244" s="20">
+      <c r="C245" s="20"/>
+      <c r="D245" s="20">
         <v>0</v>
       </c>
-      <c r="E244" s="19" t="s">
+      <c r="E245" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="F244" s="20" t="s">
+      <c r="F245" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G244" s="20">
+      <c r="G245" s="20">
         <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="17">
-        <v>236</v>
-      </c>
-      <c r="B245" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="C245" s="18"/>
-      <c r="D245" s="18">
-        <v>2</v>
-      </c>
-      <c r="E245" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="F245" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="G245" s="18">
-        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="17">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B246" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C246" s="18"/>
       <c r="D246" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E246" s="17" t="s">
         <v>363</v>
@@ -16867,19 +16918,19 @@
         <v>398</v>
       </c>
       <c r="G246" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="17">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B247" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C247" s="18"/>
       <c r="D247" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E247" s="17" t="s">
         <v>363</v>
@@ -16888,99 +16939,99 @@
         <v>398</v>
       </c>
       <c r="G247" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="19">
+      <c r="A248" s="17">
+        <v>238</v>
+      </c>
+      <c r="B248" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C248" s="18"/>
+      <c r="D248" s="18">
+        <v>2</v>
+      </c>
+      <c r="E248" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F248" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G248" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="19">
         <v>239</v>
       </c>
-      <c r="B248" s="20" t="s">
+      <c r="B249" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="C248" s="20"/>
-      <c r="D248" s="20">
+      <c r="C249" s="20"/>
+      <c r="D249" s="20">
         <v>0</v>
       </c>
-      <c r="E248" s="19" t="s">
+      <c r="E249" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="F248" s="20" t="s">
+      <c r="F249" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G248" s="20">
+      <c r="G249" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="17">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="17">
         <v>240</v>
       </c>
-      <c r="B249" s="18" t="s">
+      <c r="B250" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C249" s="18"/>
-      <c r="D249" s="18">
-        <v>2</v>
-      </c>
-      <c r="E249" s="17" t="s">
+      <c r="C250" s="18"/>
+      <c r="D250" s="18">
+        <v>2</v>
+      </c>
+      <c r="E250" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="F249" s="18" t="s">
+      <c r="F250" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G249" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="19">
+      <c r="G250" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="19">
         <v>241</v>
       </c>
-      <c r="B250" s="20" t="s">
+      <c r="B251" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C250" s="20"/>
-      <c r="D250" s="20">
+      <c r="C251" s="20"/>
+      <c r="D251" s="20">
         <v>0</v>
       </c>
-      <c r="E250" s="19" t="s">
+      <c r="E251" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="F250" s="20" t="s">
+      <c r="F251" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G250" s="20">
+      <c r="G251" s="20">
         <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="17">
-        <v>242</v>
-      </c>
-      <c r="B251" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="C251" s="18"/>
-      <c r="D251" s="18">
-        <v>0</v>
-      </c>
-      <c r="E251" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="F251" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="G251" s="18">
-        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="17">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B252" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C252" s="18"/>
       <c r="D252" s="18">
@@ -16993,19 +17044,19 @@
         <v>398</v>
       </c>
       <c r="G252" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="17">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C253" s="18"/>
       <c r="D253" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E253" s="17" t="s">
         <v>363</v>
@@ -17014,61 +17065,61 @@
         <v>398</v>
       </c>
       <c r="G253" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" s="17">
+        <v>244</v>
+      </c>
+      <c r="B254" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C254" s="18"/>
+      <c r="D254" s="18">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="19">
+      <c r="E254" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F254" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G254" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" s="19">
         <v>245</v>
       </c>
-      <c r="B254" s="20" t="s">
+      <c r="B255" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C254" s="20"/>
-      <c r="D254" s="20">
+      <c r="C255" s="20"/>
+      <c r="D255" s="20">
         <v>0</v>
       </c>
-      <c r="E254" s="19" t="s">
+      <c r="E255" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="F254" s="20" t="s">
+      <c r="F255" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G254" s="20">
+      <c r="G255" s="20">
         <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="17">
-        <v>246</v>
-      </c>
-      <c r="B255" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="C255" s="18"/>
-      <c r="D255" s="18">
-        <v>3</v>
-      </c>
-      <c r="E255" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="F255" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="G255" s="18">
-        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="17">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B256" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C256" s="18"/>
       <c r="D256" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E256" s="17" t="s">
         <v>363</v>
@@ -17077,61 +17128,61 @@
         <v>398</v>
       </c>
       <c r="G256" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="19">
+      <c r="A257" s="17">
+        <v>247</v>
+      </c>
+      <c r="B257" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C257" s="18"/>
+      <c r="D257" s="18">
+        <v>2</v>
+      </c>
+      <c r="E257" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F257" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G257" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="19">
         <v>248</v>
       </c>
-      <c r="B257" s="20" t="s">
+      <c r="B258" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="C257" s="20"/>
-      <c r="D257" s="20">
+      <c r="C258" s="20"/>
+      <c r="D258" s="20">
         <v>0</v>
       </c>
-      <c r="E257" s="19" t="s">
+      <c r="E258" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="F257" s="20" t="s">
+      <c r="F258" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="G257" s="20">
+      <c r="G258" s="20">
         <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="17">
-        <v>249</v>
-      </c>
-      <c r="B258" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="C258" s="18"/>
-      <c r="D258" s="18">
-        <v>4</v>
-      </c>
-      <c r="E258" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="F258" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="G258" s="18">
-        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="17">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B259" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C259" s="18"/>
       <c r="D259" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E259" s="17" t="s">
         <v>363</v>
@@ -17140,19 +17191,19 @@
         <v>398</v>
       </c>
       <c r="G259" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="17">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B260" s="18" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="C260" s="18"/>
       <c r="D260" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E260" s="17" t="s">
         <v>363</v>
@@ -17161,15 +17212,15 @@
         <v>398</v>
       </c>
       <c r="G260" s="18">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="17">
-        <v>252</v>
-      </c>
-      <c r="B261" s="24" t="s">
-        <v>270</v>
+        <v>251</v>
+      </c>
+      <c r="B261" s="18" t="s">
+        <v>238</v>
       </c>
       <c r="C261" s="18"/>
       <c r="D261" s="18">
@@ -17186,69 +17237,71 @@
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
+      <c r="A262" s="17">
+        <v>252</v>
+      </c>
+      <c r="B262" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="C262" s="18"/>
+      <c r="D262" s="18">
+        <v>4</v>
+      </c>
+      <c r="E262" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="F262" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="G262" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="2">
         <v>253</v>
       </c>
-      <c r="B262" s="12" t="s">
+      <c r="B263" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="C262"/>
-      <c r="D262">
-        <v>2</v>
-      </c>
-      <c r="E262" s="2" t="s">
+      <c r="C263"/>
+      <c r="D263">
+        <v>2</v>
+      </c>
+      <c r="E263" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F262" t="s">
+      <c r="F263" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="17">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="17">
         <v>254</v>
       </c>
-      <c r="B263" s="24" t="s">
+      <c r="B264" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C263" s="18"/>
-      <c r="D263" s="18">
-        <v>2</v>
-      </c>
-      <c r="E263" s="17" t="s">
+      <c r="C264" s="18"/>
+      <c r="D264" s="18">
+        <v>2</v>
+      </c>
+      <c r="E264" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="F263" s="18" t="s">
+      <c r="F264" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G263" s="18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="19">
-        <v>255</v>
-      </c>
-      <c r="B264" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="C264" s="20"/>
-      <c r="D264" s="20">
-        <v>0</v>
-      </c>
-      <c r="E264" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="F264" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="G264" s="20"/>
+      <c r="G264" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="19">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B265" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C265" s="20"/>
       <c r="D265" s="20">
@@ -17263,29 +17316,30 @@
       <c r="G265" s="20"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="2">
+      <c r="A266" s="19">
+        <v>256</v>
+      </c>
+      <c r="B266" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C266" s="20"/>
+      <c r="D266" s="20">
+        <v>0</v>
+      </c>
+      <c r="E266" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="F266" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="G266" s="20"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="2">
         <v>257</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B267" t="s">
         <v>239</v>
-      </c>
-      <c r="C266"/>
-      <c r="D266">
-        <v>2</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F266" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="6">
-        <v>258</v>
-      </c>
-      <c r="B267" t="s">
-        <v>336</v>
       </c>
       <c r="C267"/>
       <c r="D267">
@@ -17295,15 +17349,15 @@
         <v>256</v>
       </c>
       <c r="F267" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B268" t="s">
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="C268"/>
       <c r="D268">
@@ -17313,15 +17367,15 @@
         <v>256</v>
       </c>
       <c r="F268" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="2">
-        <v>260</v>
+      <c r="A269" s="6">
+        <v>259</v>
       </c>
       <c r="B269" t="s">
-        <v>358</v>
+        <v>240</v>
       </c>
       <c r="C269"/>
       <c r="D269">
@@ -17336,10 +17390,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B270" t="s">
-        <v>241</v>
+        <v>358</v>
       </c>
       <c r="C270"/>
       <c r="D270">
@@ -17353,11 +17407,11 @@
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="6">
-        <v>262</v>
+      <c r="A271" s="2">
+        <v>261</v>
       </c>
       <c r="B271" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C271"/>
       <c r="D271">
@@ -17371,20 +17425,18 @@
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
-        <v>263</v>
+      <c r="A272" s="6">
+        <v>262</v>
       </c>
       <c r="B272" t="s">
-        <v>14</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>137</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C272"/>
       <c r="D272">
         <v>2</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F272" t="s">
         <v>397</v>
@@ -17392,13 +17444,13 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B273" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D273">
         <v>2</v>
@@ -17412,13 +17464,13 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B274" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D274">
         <v>2</v>
@@ -17432,10 +17484,13 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B275" t="s">
-        <v>359</v>
+        <v>140</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="D275">
         <v>2</v>
@@ -17448,103 +17503,103 @@
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="6">
+      <c r="A276" s="2">
+        <v>266</v>
+      </c>
+      <c r="B276" t="s">
+        <v>359</v>
+      </c>
+      <c r="D276">
+        <v>2</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F276" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="6">
         <v>267</v>
       </c>
-      <c r="B276" s="7" t="s">
+      <c r="B277" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C276" s="6" t="s">
+      <c r="C277" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="D276" s="7">
-        <v>2</v>
-      </c>
-      <c r="E276" s="6" t="s">
+      <c r="D277" s="7">
+        <v>2</v>
+      </c>
+      <c r="E277" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="F276" s="7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
-        <v>268</v>
-      </c>
-      <c r="B277" t="s">
-        <v>416</v>
-      </c>
-      <c r="D277">
-        <v>2</v>
-      </c>
-      <c r="E277" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F277" t="s">
+      <c r="F277" s="7" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B278" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F278" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="6">
+      <c r="A279" s="2">
+        <v>269</v>
+      </c>
+      <c r="B279" t="s">
+        <v>417</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F279" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="6">
         <v>270</v>
       </c>
-      <c r="B279" s="7" t="s">
+      <c r="B280" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="C279" s="6"/>
-      <c r="D279" s="7">
+      <c r="C280" s="6"/>
+      <c r="D280" s="7">
         <v>1</v>
       </c>
-      <c r="E279" s="6" t="s">
+      <c r="E280" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="F279" s="7" t="s">
+      <c r="F280" s="7" t="s">
         <v>397</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="2">
-        <v>271</v>
-      </c>
-      <c r="B280" t="s">
-        <v>262</v>
-      </c>
-      <c r="D280">
-        <v>2</v>
-      </c>
-      <c r="E280" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="F280" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B281" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E281" s="2" t="s">
         <v>264</v>
@@ -17555,13 +17610,13 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B282" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D282">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>264</v>
@@ -17572,10 +17627,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B283" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D283">
         <v>2</v>
@@ -17586,14 +17641,13 @@
       <c r="F283" t="s">
         <v>398</v>
       </c>
-      <c r="G283" s="7"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B284" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D284">
         <v>2</v>
@@ -17604,16 +17658,14 @@
       <c r="F284" t="s">
         <v>398</v>
       </c>
+      <c r="G284" s="7"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B285" t="s">
-        <v>268</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D285">
         <v>2</v>
@@ -17627,13 +17679,13 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
+        <v>276</v>
+      </c>
+      <c r="B286" t="s">
+        <v>268</v>
+      </c>
+      <c r="C286" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B286" t="s">
-        <v>269</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="D286">
         <v>2</v>
@@ -17647,16 +17699,16 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
+        <v>277</v>
+      </c>
+      <c r="B287" t="s">
+        <v>269</v>
+      </c>
+      <c r="C287" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B287" t="s">
-        <v>270</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="D287">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>264</v>
@@ -17667,13 +17719,16 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
+        <v>278</v>
+      </c>
+      <c r="B288" t="s">
+        <v>270</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B288" t="s">
-        <v>271</v>
-      </c>
       <c r="D288">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>264</v>
@@ -17684,13 +17739,13 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B289" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D289">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>264</v>
@@ -17701,13 +17756,10 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B290" t="s">
-        <v>273</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D290">
         <v>2</v>
@@ -17721,10 +17773,13 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B291" t="s">
-        <v>275</v>
+        <v>273</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="D291">
         <v>2</v>
@@ -17738,10 +17793,10 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B292" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D292">
         <v>2</v>
@@ -17755,10 +17810,10 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B293" t="s">
-        <v>306</v>
+        <v>276</v>
       </c>
       <c r="D293">
         <v>2</v>
@@ -17772,13 +17827,10 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B294" t="s">
-        <v>280</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="D294">
         <v>2</v>
@@ -17792,13 +17844,13 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B295" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D295">
         <v>2</v>
@@ -17812,13 +17864,13 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B296" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D296">
         <v>2</v>
@@ -17832,13 +17884,13 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B297" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D297">
         <v>2</v>
@@ -17852,10 +17904,13 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B298" t="s">
-        <v>287</v>
+        <v>285</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>286</v>
       </c>
       <c r="D298">
         <v>2</v>
@@ -17869,16 +17924,13 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B299" t="s">
-        <v>291</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E299" s="2" t="s">
         <v>264</v>
@@ -17889,10 +17941,13 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
+        <v>290</v>
+      </c>
+      <c r="B300" t="s">
         <v>291</v>
       </c>
-      <c r="B300" t="s">
-        <v>293</v>
+      <c r="C300" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="D300">
         <v>1</v>
@@ -17906,13 +17961,13 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B301" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D301">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>264</v>
@@ -17923,13 +17978,13 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B302" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E302" s="2" t="s">
         <v>264</v>
@@ -17940,10 +17995,10 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B303" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D303">
         <v>1</v>
@@ -17957,13 +18012,13 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B304" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="D304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E304" s="2" t="s">
         <v>264</v>
@@ -17974,14 +18029,13 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B305" t="s">
-        <v>107</v>
-      </c>
-      <c r="C305"/>
+        <v>325</v>
+      </c>
       <c r="D305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>264</v>
@@ -17992,10 +18046,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B306" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C306"/>
       <c r="D306">
@@ -18010,10 +18064,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B307" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C307"/>
       <c r="D307">
@@ -18028,14 +18082,14 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B308" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C308"/>
       <c r="D308">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>264</v>
@@ -18045,29 +18099,47 @@
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" s="17">
+      <c r="A309" s="2">
+        <v>299</v>
+      </c>
+      <c r="B309" t="s">
+        <v>110</v>
+      </c>
+      <c r="C309"/>
+      <c r="D309">
+        <v>4</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F309" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="17">
         <v>300</v>
       </c>
-      <c r="B309" s="18" t="s">
+      <c r="B310" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="C309" s="17"/>
-      <c r="D309" s="18"/>
-      <c r="E309" s="17" t="s">
+      <c r="C310" s="17"/>
+      <c r="D310" s="18"/>
+      <c r="E310" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="F309" s="18" t="s">
+      <c r="F310" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G309" s="5"/>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
+      <c r="G310" s="5"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="G310">
-        <f>SUM(G2:G309)</f>
-        <v>133</v>
+      <c r="G311">
+        <f>SUM(G2:G310)</f>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/incrediblejournEYBEEwithyou/guestlist - 25.2.xlsx
+++ b/incrediblejournEYBEEwithyou/guestlist - 25.2.xlsx
@@ -17,8 +17,8 @@
   </sheets>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId8"/>
-    <pivotCache cacheId="2" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -6027,7 +6027,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" showDrill="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C333" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" outline="0" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -7703,7 +7703,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" showDrill="0" useAutoFormatting="1" pageOverThenDown="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" showDrill="0" useAutoFormatting="1" pageOverThenDown="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D321" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" outline="0" showAll="0" defaultSubtotal="0">
@@ -12184,8 +12184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L311"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="G233" sqref="G233"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G310" sqref="G310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13070,6 +13070,9 @@
       <c r="F42" t="s">
         <v>397</v>
       </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
@@ -13089,7 +13092,7 @@
         <v>398</v>
       </c>
       <c r="G43" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -13875,7 +13878,9 @@
       <c r="F84" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G84" s="5"/>
+      <c r="G84" s="18">
+        <v>3</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
@@ -14062,21 +14067,21 @@
       <c r="G94" s="5"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="6"/>
-      <c r="B95" s="7" t="s">
+      <c r="A95" s="17"/>
+      <c r="B95" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="7">
-        <v>2</v>
-      </c>
-      <c r="E95" s="6" t="s">
+      <c r="C95" s="17"/>
+      <c r="D95" s="18">
+        <v>2</v>
+      </c>
+      <c r="E95" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G95" s="7"/>
+      <c r="G95" s="5"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
@@ -14982,22 +14987,23 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
+      <c r="A143" s="19">
         <v>133</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C143"/>
-      <c r="D143">
+      <c r="C143" s="20"/>
+      <c r="D143" s="20">
         <v>0</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="F143" t="s">
+      <c r="F143" s="20" t="s">
         <v>397</v>
       </c>
+      <c r="G143" s="20"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
@@ -15216,7 +15222,9 @@
       <c r="F155" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G155" s="5"/>
+      <c r="G155" s="18">
+        <v>5</v>
+      </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
@@ -15782,7 +15790,9 @@
       <c r="F186" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G186" s="5"/>
+      <c r="G186" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="17">
@@ -16383,7 +16393,9 @@
       <c r="F219" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G219" s="5"/>
+      <c r="G219" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="17">
@@ -16528,7 +16540,9 @@
       <c r="F226" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G226" s="5"/>
+      <c r="G226" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="17">
@@ -16547,7 +16561,9 @@
       <c r="F227" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G227" s="5"/>
+      <c r="G227" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="17">
@@ -16690,7 +16706,9 @@
       <c r="F234" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G234" s="5"/>
+      <c r="G234" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="17">
@@ -16709,7 +16727,9 @@
       <c r="F235" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G235" s="5"/>
+      <c r="G235" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="17">
@@ -16728,7 +16748,9 @@
       <c r="F236" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G236" s="5"/>
+      <c r="G236" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="17">
@@ -16747,7 +16769,9 @@
       <c r="F237" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G237" s="5"/>
+      <c r="G237" s="18">
+        <v>2</v>
+      </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="17">
@@ -16766,7 +16790,9 @@
       <c r="F238" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="G238" s="5"/>
+      <c r="G238" s="18">
+        <v>0</v>
+      </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
@@ -18139,7 +18165,7 @@
       </c>
       <c r="G311">
         <f>SUM(G2:G310)</f>
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -18152,8 +18178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
